--- a/Project/учебный_график.xlsx
+++ b/Project/учебный_график.xlsx
@@ -9,8 +9,7 @@
   <sheets>
     <sheet name="График 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="График 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="График 3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Сводные данные" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Сводные данные" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1193,29 +1192,29 @@
           <t>Т</t>
         </is>
       </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
+      <c r="L8" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="N8" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="O8" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="P8" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
         </is>
       </c>
       <c r="Q8" s="6" t="inlineStr">
@@ -1263,101 +1262,41 @@
           <t>П</t>
         </is>
       </c>
-      <c r="Z8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK8" s="7" t="inlineStr">
+      <c r="Z8" s="7" t="inlineStr">
         <is>
           <t>ПА</t>
         </is>
       </c>
-      <c r="AL8" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM8" s="8" t="inlineStr">
+      <c r="AA8" s="8" t="inlineStr">
         <is>
           <t>ГИА</t>
         </is>
       </c>
-      <c r="AN8" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO8" s="9" t="inlineStr">
+      <c r="AB8" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AP8" s="9" t="inlineStr">
+      <c r="AC8" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AQ8" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR8" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
+      <c r="AD8" s="3" t="inlineStr"/>
+      <c r="AE8" s="3" t="inlineStr"/>
+      <c r="AF8" s="3" t="inlineStr"/>
+      <c r="AG8" s="3" t="inlineStr"/>
+      <c r="AH8" s="3" t="inlineStr"/>
+      <c r="AI8" s="3" t="inlineStr"/>
+      <c r="AJ8" s="3" t="inlineStr"/>
+      <c r="AK8" s="3" t="inlineStr"/>
+      <c r="AL8" s="3" t="inlineStr"/>
+      <c r="AM8" s="3" t="inlineStr"/>
+      <c r="AN8" s="3" t="inlineStr"/>
+      <c r="AO8" s="3" t="inlineStr"/>
+      <c r="AP8" s="3" t="inlineStr"/>
+      <c r="AQ8" s="3" t="inlineStr"/>
+      <c r="AR8" s="3" t="inlineStr"/>
       <c r="AS8" s="3" t="inlineStr"/>
       <c r="AT8" s="3" t="inlineStr"/>
       <c r="AU8" s="3" t="inlineStr"/>
@@ -1419,29 +1358,29 @@
           <t>Т</t>
         </is>
       </c>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
+      <c r="L9" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="N9" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="O9" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="P9" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
         </is>
       </c>
       <c r="Q9" s="6" t="inlineStr">
@@ -1489,101 +1428,41 @@
           <t>П</t>
         </is>
       </c>
-      <c r="Z9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK9" s="7" t="inlineStr">
+      <c r="Z9" s="7" t="inlineStr">
         <is>
           <t>ПА</t>
         </is>
       </c>
-      <c r="AL9" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM9" s="8" t="inlineStr">
+      <c r="AA9" s="8" t="inlineStr">
         <is>
           <t>ГИА</t>
         </is>
       </c>
-      <c r="AN9" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO9" s="9" t="inlineStr">
+      <c r="AB9" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AP9" s="9" t="inlineStr">
+      <c r="AC9" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AQ9" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR9" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
+      <c r="AD9" s="3" t="inlineStr"/>
+      <c r="AE9" s="3" t="inlineStr"/>
+      <c r="AF9" s="3" t="inlineStr"/>
+      <c r="AG9" s="3" t="inlineStr"/>
+      <c r="AH9" s="3" t="inlineStr"/>
+      <c r="AI9" s="3" t="inlineStr"/>
+      <c r="AJ9" s="3" t="inlineStr"/>
+      <c r="AK9" s="3" t="inlineStr"/>
+      <c r="AL9" s="3" t="inlineStr"/>
+      <c r="AM9" s="3" t="inlineStr"/>
+      <c r="AN9" s="3" t="inlineStr"/>
+      <c r="AO9" s="3" t="inlineStr"/>
+      <c r="AP9" s="3" t="inlineStr"/>
+      <c r="AQ9" s="3" t="inlineStr"/>
+      <c r="AR9" s="3" t="inlineStr"/>
       <c r="AS9" s="3" t="inlineStr"/>
       <c r="AT9" s="3" t="inlineStr"/>
       <c r="AU9" s="3" t="inlineStr"/>
@@ -1645,29 +1524,29 @@
           <t>Т</t>
         </is>
       </c>
-      <c r="L10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
+      <c r="L10" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="N10" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="O10" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="P10" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
         </is>
       </c>
       <c r="Q10" s="6" t="inlineStr">
@@ -1715,101 +1594,41 @@
           <t>П</t>
         </is>
       </c>
-      <c r="Z10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK10" s="7" t="inlineStr">
+      <c r="Z10" s="7" t="inlineStr">
         <is>
           <t>ПА</t>
         </is>
       </c>
-      <c r="AL10" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM10" s="8" t="inlineStr">
+      <c r="AA10" s="8" t="inlineStr">
         <is>
           <t>ГИА</t>
         </is>
       </c>
-      <c r="AN10" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO10" s="9" t="inlineStr">
+      <c r="AB10" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AP10" s="9" t="inlineStr">
+      <c r="AC10" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AQ10" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR10" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
+      <c r="AD10" s="3" t="inlineStr"/>
+      <c r="AE10" s="3" t="inlineStr"/>
+      <c r="AF10" s="3" t="inlineStr"/>
+      <c r="AG10" s="3" t="inlineStr"/>
+      <c r="AH10" s="3" t="inlineStr"/>
+      <c r="AI10" s="3" t="inlineStr"/>
+      <c r="AJ10" s="3" t="inlineStr"/>
+      <c r="AK10" s="3" t="inlineStr"/>
+      <c r="AL10" s="3" t="inlineStr"/>
+      <c r="AM10" s="3" t="inlineStr"/>
+      <c r="AN10" s="3" t="inlineStr"/>
+      <c r="AO10" s="3" t="inlineStr"/>
+      <c r="AP10" s="3" t="inlineStr"/>
+      <c r="AQ10" s="3" t="inlineStr"/>
+      <c r="AR10" s="3" t="inlineStr"/>
       <c r="AS10" s="3" t="inlineStr"/>
       <c r="AT10" s="3" t="inlineStr"/>
       <c r="AU10" s="3" t="inlineStr"/>
@@ -1871,29 +1690,29 @@
           <t>Т</t>
         </is>
       </c>
-      <c r="L11" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N11" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P11" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
+      <c r="L11" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="N11" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="O11" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="P11" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
         </is>
       </c>
       <c r="Q11" s="6" t="inlineStr">
@@ -1941,101 +1760,41 @@
           <t>П</t>
         </is>
       </c>
-      <c r="Z11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK11" s="7" t="inlineStr">
+      <c r="Z11" s="7" t="inlineStr">
         <is>
           <t>ПА</t>
         </is>
       </c>
-      <c r="AL11" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM11" s="8" t="inlineStr">
+      <c r="AA11" s="8" t="inlineStr">
         <is>
           <t>ГИА</t>
         </is>
       </c>
-      <c r="AN11" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO11" s="9" t="inlineStr">
+      <c r="AB11" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AP11" s="9" t="inlineStr">
+      <c r="AC11" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AQ11" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR11" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
+      <c r="AD11" s="3" t="inlineStr"/>
+      <c r="AE11" s="3" t="inlineStr"/>
+      <c r="AF11" s="3" t="inlineStr"/>
+      <c r="AG11" s="3" t="inlineStr"/>
+      <c r="AH11" s="3" t="inlineStr"/>
+      <c r="AI11" s="3" t="inlineStr"/>
+      <c r="AJ11" s="3" t="inlineStr"/>
+      <c r="AK11" s="3" t="inlineStr"/>
+      <c r="AL11" s="3" t="inlineStr"/>
+      <c r="AM11" s="3" t="inlineStr"/>
+      <c r="AN11" s="3" t="inlineStr"/>
+      <c r="AO11" s="3" t="inlineStr"/>
+      <c r="AP11" s="3" t="inlineStr"/>
+      <c r="AQ11" s="3" t="inlineStr"/>
+      <c r="AR11" s="3" t="inlineStr"/>
       <c r="AS11" s="3" t="inlineStr"/>
       <c r="AT11" s="3" t="inlineStr"/>
       <c r="AU11" s="3" t="inlineStr"/>
@@ -2097,29 +1856,29 @@
           <t>Т</t>
         </is>
       </c>
-      <c r="L12" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M12" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N12" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P12" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
+      <c r="L12" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="N12" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="O12" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="P12" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
         </is>
       </c>
       <c r="Q12" s="6" t="inlineStr">
@@ -2167,101 +1926,41 @@
           <t>П</t>
         </is>
       </c>
-      <c r="Z12" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA12" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB12" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC12" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD12" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE12" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF12" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG12" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH12" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI12" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ12" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK12" s="7" t="inlineStr">
+      <c r="Z12" s="7" t="inlineStr">
         <is>
           <t>ПА</t>
         </is>
       </c>
-      <c r="AL12" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM12" s="8" t="inlineStr">
+      <c r="AA12" s="8" t="inlineStr">
         <is>
           <t>ГИА</t>
         </is>
       </c>
-      <c r="AN12" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO12" s="9" t="inlineStr">
+      <c r="AB12" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AP12" s="9" t="inlineStr">
+      <c r="AC12" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AQ12" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR12" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
+      <c r="AD12" s="3" t="inlineStr"/>
+      <c r="AE12" s="3" t="inlineStr"/>
+      <c r="AF12" s="3" t="inlineStr"/>
+      <c r="AG12" s="3" t="inlineStr"/>
+      <c r="AH12" s="3" t="inlineStr"/>
+      <c r="AI12" s="3" t="inlineStr"/>
+      <c r="AJ12" s="3" t="inlineStr"/>
+      <c r="AK12" s="3" t="inlineStr"/>
+      <c r="AL12" s="3" t="inlineStr"/>
+      <c r="AM12" s="3" t="inlineStr"/>
+      <c r="AN12" s="3" t="inlineStr"/>
+      <c r="AO12" s="3" t="inlineStr"/>
+      <c r="AP12" s="3" t="inlineStr"/>
+      <c r="AQ12" s="3" t="inlineStr"/>
+      <c r="AR12" s="3" t="inlineStr"/>
       <c r="AS12" s="3" t="inlineStr"/>
       <c r="AT12" s="3" t="inlineStr"/>
       <c r="AU12" s="3" t="inlineStr"/>
@@ -3246,29 +2945,29 @@
           <t>Т</t>
         </is>
       </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
+      <c r="L8" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="N8" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="O8" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="P8" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
         </is>
       </c>
       <c r="Q8" s="6" t="inlineStr">
@@ -3316,101 +3015,41 @@
           <t>П</t>
         </is>
       </c>
-      <c r="Z8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK8" s="7" t="inlineStr">
+      <c r="Z8" s="7" t="inlineStr">
         <is>
           <t>ПА</t>
         </is>
       </c>
-      <c r="AL8" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM8" s="8" t="inlineStr">
+      <c r="AA8" s="8" t="inlineStr">
         <is>
           <t>ГИА</t>
         </is>
       </c>
-      <c r="AN8" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO8" s="9" t="inlineStr">
+      <c r="AB8" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AP8" s="9" t="inlineStr">
+      <c r="AC8" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AQ8" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR8" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
+      <c r="AD8" s="3" t="inlineStr"/>
+      <c r="AE8" s="3" t="inlineStr"/>
+      <c r="AF8" s="3" t="inlineStr"/>
+      <c r="AG8" s="3" t="inlineStr"/>
+      <c r="AH8" s="3" t="inlineStr"/>
+      <c r="AI8" s="3" t="inlineStr"/>
+      <c r="AJ8" s="3" t="inlineStr"/>
+      <c r="AK8" s="3" t="inlineStr"/>
+      <c r="AL8" s="3" t="inlineStr"/>
+      <c r="AM8" s="3" t="inlineStr"/>
+      <c r="AN8" s="3" t="inlineStr"/>
+      <c r="AO8" s="3" t="inlineStr"/>
+      <c r="AP8" s="3" t="inlineStr"/>
+      <c r="AQ8" s="3" t="inlineStr"/>
+      <c r="AR8" s="3" t="inlineStr"/>
       <c r="AS8" s="3" t="inlineStr"/>
       <c r="AT8" s="3" t="inlineStr"/>
       <c r="AU8" s="3" t="inlineStr"/>
@@ -3472,29 +3111,29 @@
           <t>Т</t>
         </is>
       </c>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
+      <c r="L9" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="N9" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="O9" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="P9" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
         </is>
       </c>
       <c r="Q9" s="6" t="inlineStr">
@@ -3542,101 +3181,41 @@
           <t>П</t>
         </is>
       </c>
-      <c r="Z9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK9" s="7" t="inlineStr">
+      <c r="Z9" s="7" t="inlineStr">
         <is>
           <t>ПА</t>
         </is>
       </c>
-      <c r="AL9" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM9" s="8" t="inlineStr">
+      <c r="AA9" s="8" t="inlineStr">
         <is>
           <t>ГИА</t>
         </is>
       </c>
-      <c r="AN9" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO9" s="9" t="inlineStr">
+      <c r="AB9" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AP9" s="9" t="inlineStr">
+      <c r="AC9" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AQ9" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR9" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
+      <c r="AD9" s="3" t="inlineStr"/>
+      <c r="AE9" s="3" t="inlineStr"/>
+      <c r="AF9" s="3" t="inlineStr"/>
+      <c r="AG9" s="3" t="inlineStr"/>
+      <c r="AH9" s="3" t="inlineStr"/>
+      <c r="AI9" s="3" t="inlineStr"/>
+      <c r="AJ9" s="3" t="inlineStr"/>
+      <c r="AK9" s="3" t="inlineStr"/>
+      <c r="AL9" s="3" t="inlineStr"/>
+      <c r="AM9" s="3" t="inlineStr"/>
+      <c r="AN9" s="3" t="inlineStr"/>
+      <c r="AO9" s="3" t="inlineStr"/>
+      <c r="AP9" s="3" t="inlineStr"/>
+      <c r="AQ9" s="3" t="inlineStr"/>
+      <c r="AR9" s="3" t="inlineStr"/>
       <c r="AS9" s="3" t="inlineStr"/>
       <c r="AT9" s="3" t="inlineStr"/>
       <c r="AU9" s="3" t="inlineStr"/>
@@ -3698,29 +3277,29 @@
           <t>Т</t>
         </is>
       </c>
-      <c r="L10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
+      <c r="L10" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="N10" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="O10" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="P10" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
         </is>
       </c>
       <c r="Q10" s="6" t="inlineStr">
@@ -3768,101 +3347,41 @@
           <t>П</t>
         </is>
       </c>
-      <c r="Z10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK10" s="7" t="inlineStr">
+      <c r="Z10" s="7" t="inlineStr">
         <is>
           <t>ПА</t>
         </is>
       </c>
-      <c r="AL10" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM10" s="8" t="inlineStr">
+      <c r="AA10" s="8" t="inlineStr">
         <is>
           <t>ГИА</t>
         </is>
       </c>
-      <c r="AN10" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO10" s="9" t="inlineStr">
+      <c r="AB10" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AP10" s="9" t="inlineStr">
+      <c r="AC10" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AQ10" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR10" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
+      <c r="AD10" s="3" t="inlineStr"/>
+      <c r="AE10" s="3" t="inlineStr"/>
+      <c r="AF10" s="3" t="inlineStr"/>
+      <c r="AG10" s="3" t="inlineStr"/>
+      <c r="AH10" s="3" t="inlineStr"/>
+      <c r="AI10" s="3" t="inlineStr"/>
+      <c r="AJ10" s="3" t="inlineStr"/>
+      <c r="AK10" s="3" t="inlineStr"/>
+      <c r="AL10" s="3" t="inlineStr"/>
+      <c r="AM10" s="3" t="inlineStr"/>
+      <c r="AN10" s="3" t="inlineStr"/>
+      <c r="AO10" s="3" t="inlineStr"/>
+      <c r="AP10" s="3" t="inlineStr"/>
+      <c r="AQ10" s="3" t="inlineStr"/>
+      <c r="AR10" s="3" t="inlineStr"/>
       <c r="AS10" s="3" t="inlineStr"/>
       <c r="AT10" s="3" t="inlineStr"/>
       <c r="AU10" s="3" t="inlineStr"/>
@@ -3924,29 +3443,29 @@
           <t>Т</t>
         </is>
       </c>
-      <c r="L11" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N11" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P11" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
+      <c r="L11" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="N11" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="O11" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="P11" s="6" t="inlineStr">
+        <is>
+          <t>П</t>
         </is>
       </c>
       <c r="Q11" s="6" t="inlineStr">
@@ -3994,101 +3513,41 @@
           <t>П</t>
         </is>
       </c>
-      <c r="Z11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ11" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK11" s="7" t="inlineStr">
+      <c r="Z11" s="7" t="inlineStr">
         <is>
           <t>ПА</t>
         </is>
       </c>
-      <c r="AL11" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM11" s="8" t="inlineStr">
+      <c r="AA11" s="8" t="inlineStr">
         <is>
           <t>ГИА</t>
         </is>
       </c>
-      <c r="AN11" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO11" s="9" t="inlineStr">
+      <c r="AB11" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AP11" s="9" t="inlineStr">
+      <c r="AC11" s="9" t="inlineStr">
         <is>
           <t>К</t>
         </is>
       </c>
-      <c r="AQ11" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR11" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
+      <c r="AD11" s="3" t="inlineStr"/>
+      <c r="AE11" s="3" t="inlineStr"/>
+      <c r="AF11" s="3" t="inlineStr"/>
+      <c r="AG11" s="3" t="inlineStr"/>
+      <c r="AH11" s="3" t="inlineStr"/>
+      <c r="AI11" s="3" t="inlineStr"/>
+      <c r="AJ11" s="3" t="inlineStr"/>
+      <c r="AK11" s="3" t="inlineStr"/>
+      <c r="AL11" s="3" t="inlineStr"/>
+      <c r="AM11" s="3" t="inlineStr"/>
+      <c r="AN11" s="3" t="inlineStr"/>
+      <c r="AO11" s="3" t="inlineStr"/>
+      <c r="AP11" s="3" t="inlineStr"/>
+      <c r="AQ11" s="3" t="inlineStr"/>
+      <c r="AR11" s="3" t="inlineStr"/>
       <c r="AS11" s="3" t="inlineStr"/>
       <c r="AT11" s="3" t="inlineStr"/>
       <c r="AU11" s="3" t="inlineStr"/>
@@ -4637,2095 +4096,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
-    <col width="9" customWidth="1" min="18" max="18"/>
-    <col width="9" customWidth="1" min="19" max="19"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>3. Календарный учебный график Специальность 31.08.51 ФТИЗИАТРИЯ 2027-2028 учебный год</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Сентябрь</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Октябрь</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>Ноябрь</t>
-        </is>
-      </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>Декабрь</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>Январь</t>
-        </is>
-      </c>
-      <c r="X3" s="2" t="inlineStr">
-        <is>
-          <t>Февраль</t>
-        </is>
-      </c>
-      <c r="AB3" s="2" t="inlineStr">
-        <is>
-          <t>Март</t>
-        </is>
-      </c>
-      <c r="AG3" s="2" t="inlineStr">
-        <is>
-          <t>Апрель</t>
-        </is>
-      </c>
-      <c r="AK3" s="2" t="inlineStr">
-        <is>
-          <t>Май</t>
-        </is>
-      </c>
-      <c r="AP3" s="2" t="inlineStr">
-        <is>
-          <t>Июнь</t>
-        </is>
-      </c>
-      <c r="AT3" s="2" t="inlineStr">
-        <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="AX3" s="2" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-      <c r="X4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-      <c r="AB4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-      <c r="AG4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-      <c r="AK4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-      <c r="AP4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-      <c r="AT4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-      <c r="AX4" s="2" t="inlineStr">
-        <is>
-          <t>Числа</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>1-7</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>8-14</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>15-21</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>22-28</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>29-5</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>6-12</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>13-19</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>20-26</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>27-2</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>3-9</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>10-16</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>17-23</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>24-30</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>1-7</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>8-14</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>15-21</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>22-28</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>29-4</t>
-        </is>
-      </c>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t>5-11</t>
-        </is>
-      </c>
-      <c r="U5" s="3" t="inlineStr">
-        <is>
-          <t>12-18</t>
-        </is>
-      </c>
-      <c r="V5" s="3" t="inlineStr">
-        <is>
-          <t>19-25</t>
-        </is>
-      </c>
-      <c r="W5" s="3" t="inlineStr">
-        <is>
-          <t>26-1</t>
-        </is>
-      </c>
-      <c r="X5" s="3" t="inlineStr">
-        <is>
-          <t>2-8</t>
-        </is>
-      </c>
-      <c r="Y5" s="3" t="inlineStr">
-        <is>
-          <t>9-15</t>
-        </is>
-      </c>
-      <c r="Z5" s="3" t="inlineStr">
-        <is>
-          <t>16-22</t>
-        </is>
-      </c>
-      <c r="AA5" s="3" t="inlineStr">
-        <is>
-          <t>23-29</t>
-        </is>
-      </c>
-      <c r="AB5" s="3" t="inlineStr">
-        <is>
-          <t>1-7</t>
-        </is>
-      </c>
-      <c r="AC5" s="3" t="inlineStr">
-        <is>
-          <t>8-14</t>
-        </is>
-      </c>
-      <c r="AD5" s="3" t="inlineStr">
-        <is>
-          <t>15-21</t>
-        </is>
-      </c>
-      <c r="AE5" s="3" t="inlineStr">
-        <is>
-          <t>22-28</t>
-        </is>
-      </c>
-      <c r="AF5" s="3" t="inlineStr">
-        <is>
-          <t>29-4</t>
-        </is>
-      </c>
-      <c r="AG5" s="3" t="inlineStr">
-        <is>
-          <t>5-11</t>
-        </is>
-      </c>
-      <c r="AH5" s="3" t="inlineStr">
-        <is>
-          <t>12-18</t>
-        </is>
-      </c>
-      <c r="AI5" s="3" t="inlineStr">
-        <is>
-          <t>19-25</t>
-        </is>
-      </c>
-      <c r="AJ5" s="3" t="inlineStr">
-        <is>
-          <t>26-2</t>
-        </is>
-      </c>
-      <c r="AK5" s="3" t="inlineStr">
-        <is>
-          <t>3-9</t>
-        </is>
-      </c>
-      <c r="AL5" s="3" t="inlineStr">
-        <is>
-          <t>10-16</t>
-        </is>
-      </c>
-      <c r="AM5" s="3" t="inlineStr">
-        <is>
-          <t>17-23</t>
-        </is>
-      </c>
-      <c r="AN5" s="3" t="inlineStr">
-        <is>
-          <t>24-30</t>
-        </is>
-      </c>
-      <c r="AO5" s="3" t="inlineStr">
-        <is>
-          <t>31-6</t>
-        </is>
-      </c>
-      <c r="AP5" s="3" t="inlineStr">
-        <is>
-          <t>7-13</t>
-        </is>
-      </c>
-      <c r="AQ5" s="3" t="inlineStr">
-        <is>
-          <t>14-20</t>
-        </is>
-      </c>
-      <c r="AR5" s="3" t="inlineStr">
-        <is>
-          <t>21-27</t>
-        </is>
-      </c>
-      <c r="AS5" s="3" t="inlineStr">
-        <is>
-          <t>28-4</t>
-        </is>
-      </c>
-      <c r="AT5" s="3" t="inlineStr">
-        <is>
-          <t>5-11</t>
-        </is>
-      </c>
-      <c r="AU5" s="3" t="inlineStr">
-        <is>
-          <t>12-18</t>
-        </is>
-      </c>
-      <c r="AV5" s="3" t="inlineStr">
-        <is>
-          <t>19-25</t>
-        </is>
-      </c>
-      <c r="AW5" s="3" t="inlineStr">
-        <is>
-          <t>26-1</t>
-        </is>
-      </c>
-      <c r="AX5" s="3" t="inlineStr">
-        <is>
-          <t>2-8</t>
-        </is>
-      </c>
-      <c r="AY5" s="3" t="inlineStr">
-        <is>
-          <t>9-15</t>
-        </is>
-      </c>
-      <c r="AZ5" s="3" t="inlineStr">
-        <is>
-          <t>16-22</t>
-        </is>
-      </c>
-      <c r="BA5" s="3" t="inlineStr">
-        <is>
-          <t>23-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-      <c r="X6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-      <c r="AB6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-      <c r="AG6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-      <c r="AK6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-      <c r="AP6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-      <c r="AT6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-      <c r="AX6" s="2" t="inlineStr">
-        <is>
-          <t>Нед</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA7" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD7" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF7" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="AG7" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH7" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK7" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL7" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM7" s="3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AN7" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="AO7" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP7" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ7" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AR7" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="AS7" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AT7" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AU7" s="3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AV7" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="AW7" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AX7" s="3" t="n">
-        <v>49</v>
-      </c>
-      <c r="AY7" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ7" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" s="3" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="Q8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="R8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="S8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="T8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="U8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="V8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="W8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="X8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="Y8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="Z8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ8" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK8" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AL8" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM8" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AN8" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO8" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AP8" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AQ8" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR8" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AS8" s="3" t="inlineStr"/>
-      <c r="AT8" s="3" t="inlineStr"/>
-      <c r="AU8" s="3" t="inlineStr"/>
-      <c r="AV8" s="3" t="inlineStr"/>
-      <c r="AW8" s="3" t="inlineStr"/>
-      <c r="AX8" s="3" t="inlineStr"/>
-      <c r="AY8" s="3" t="inlineStr"/>
-      <c r="AZ8" s="3" t="inlineStr"/>
-      <c r="BA8" s="3" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="Q9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="R9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="S9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="T9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="U9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="V9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="W9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="X9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="Y9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="Z9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ9" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK9" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AL9" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM9" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AN9" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO9" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AP9" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AQ9" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR9" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AS9" s="3" t="inlineStr"/>
-      <c r="AT9" s="3" t="inlineStr"/>
-      <c r="AU9" s="3" t="inlineStr"/>
-      <c r="AV9" s="3" t="inlineStr"/>
-      <c r="AW9" s="3" t="inlineStr"/>
-      <c r="AX9" s="3" t="inlineStr"/>
-      <c r="AY9" s="3" t="inlineStr"/>
-      <c r="AZ9" s="3" t="inlineStr"/>
-      <c r="BA9" s="3" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="L10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="Q10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="R10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="S10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="T10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="U10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="V10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="W10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="X10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="Y10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="Z10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ10" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK10" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AL10" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM10" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AN10" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO10" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AP10" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AQ10" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR10" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AS10" s="3" t="inlineStr"/>
-      <c r="AT10" s="3" t="inlineStr"/>
-      <c r="AU10" s="3" t="inlineStr"/>
-      <c r="AV10" s="3" t="inlineStr"/>
-      <c r="AW10" s="3" t="inlineStr"/>
-      <c r="AX10" s="3" t="inlineStr"/>
-      <c r="AY10" s="3" t="inlineStr"/>
-      <c r="AZ10" s="3" t="inlineStr"/>
-      <c r="BA10" s="3" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="E11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="F11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="I11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="J11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="K11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="L11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="M11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="N11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="O11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="P11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="Q11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="R11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="S11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="T11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="U11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="V11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="W11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="X11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="Y11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="Z11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AA11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AB11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AC11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AD11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AE11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AF11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AG11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AH11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AI11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AJ11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AK11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AL11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AM11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AN11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AO11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AP11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AQ11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AR11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AS11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AT11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AU11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AV11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AW11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AX11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AY11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AZ11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="BA11" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="F12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="J12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="K12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="L12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="M12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="N12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="O12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="P12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="Q12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="R12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="S12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="T12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="U12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="V12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="W12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="X12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="Y12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="Z12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AA12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AB12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AC12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AD12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AE12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AF12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AG12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AH12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AI12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AJ12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AK12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AL12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AM12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AN12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AO12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AP12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AQ12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AR12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AS12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AT12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AU12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AV12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AW12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AX12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AY12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AZ12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="BA12" s="10" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="K13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="L13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="M13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="N13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="Q13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="R13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="S13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="T13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="U13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="V13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="W13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="X13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="Y13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="Z13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AA13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AB13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AC13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AD13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AE13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AF13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AG13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AH13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AI13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AJ13" s="6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="AK13" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AL13" s="7" t="inlineStr">
-        <is>
-          <t>ПА</t>
-        </is>
-      </c>
-      <c r="AM13" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AN13" s="8" t="inlineStr">
-        <is>
-          <t>ГИА</t>
-        </is>
-      </c>
-      <c r="AO13" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AP13" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AQ13" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AR13" s="9" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="AS13" s="3" t="inlineStr"/>
-      <c r="AT13" s="3" t="inlineStr"/>
-      <c r="AU13" s="3" t="inlineStr"/>
-      <c r="AV13" s="3" t="inlineStr"/>
-      <c r="AW13" s="3" t="inlineStr"/>
-      <c r="AX13" s="3" t="inlineStr"/>
-      <c r="AY13" s="3" t="inlineStr"/>
-      <c r="AZ13" s="3" t="inlineStr"/>
-      <c r="BA13" s="3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Z1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
